--- a/tables/model_summaries_non_park_comparison.xlsx
+++ b/tables/model_summaries_non_park_comparison.xlsx
@@ -441,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.6174</v>
+        <v>0.6126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9354</v>
+        <v>0.5412</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0838</v>
+        <v>0.2577</v>
       </c>
     </row>
     <row r="3">
@@ -455,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0357</v>
+        <v>-0.0154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1861</v>
+        <v>0.1859</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8479</v>
+        <v>0.9342</v>
       </c>
     </row>
     <row r="4">
@@ -469,10 +469,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0512</v>
+        <v>1.0747</v>
       </c>
       <c r="C4" t="n">
-        <v>0.168</v>
+        <v>0.1673</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -483,13 +483,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4831</v>
+        <v>0.4842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1589</v>
+        <v>0.1587</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0024</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="6">
@@ -497,10 +497,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.012</v>
+        <v>-0.9974</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2075</v>
+        <v>0.2074</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9308</v>
+        <v>0.9714</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1868</v>
+        <v>0.1847</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -525,10 +525,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8344</v>
+        <v>0.8565</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1618</v>
+        <v>0.1613</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4443</v>
+        <v>-0.4182</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1913</v>
+        <v>0.1914</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0202</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="10">
@@ -553,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5588</v>
+        <v>0.9228</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4101</v>
+        <v>0.3238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1731</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="11">
@@ -567,13 +567,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1547</v>
+        <v>0.0159</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4021</v>
+        <v>0.2904</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7005</v>
+        <v>0.9562</v>
       </c>
     </row>
     <row r="12">
@@ -581,13 +581,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.321</v>
+        <v>0.0405</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6555</v>
+        <v>0.43</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6244</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="13">
@@ -595,13 +595,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.5109</v>
+        <v>0.0878</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7842</v>
+        <v>0.4834</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5147</v>
+        <v>0.8559</v>
       </c>
     </row>
     <row r="14">
@@ -609,13 +609,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.6412</v>
+        <v>0.1595</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8363</v>
+        <v>0.511</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4433</v>
+        <v>0.7549</v>
       </c>
     </row>
     <row r="15">
@@ -623,13 +623,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.7202</v>
+        <v>0.2232</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8675</v>
+        <v>0.5351</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4064</v>
+        <v>0.6766</v>
       </c>
     </row>
     <row r="16">
@@ -637,13 +637,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.7665</v>
+        <v>0.2671</v>
       </c>
       <c r="C16" t="n">
-        <v>0.91</v>
+        <v>0.5405</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3996</v>
+        <v>0.6211</v>
       </c>
     </row>
     <row r="17">
@@ -651,13 +651,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.7557</v>
+        <v>0.2267</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9352</v>
+        <v>0.5351</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4191</v>
+        <v>0.6718</v>
       </c>
     </row>
     <row r="18">
@@ -665,13 +665,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.7483</v>
+        <v>0.0791</v>
       </c>
       <c r="C18" t="n">
-        <v>0.932</v>
+        <v>0.5313</v>
       </c>
       <c r="D18" t="n">
-        <v>0.422</v>
+        <v>0.8816</v>
       </c>
     </row>
     <row r="19">
@@ -679,13 +679,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.8906</v>
+        <v>0.0047</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9254</v>
+        <v>0.5338</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3359</v>
+        <v>0.9929</v>
       </c>
     </row>
     <row r="20">
@@ -693,13 +693,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9749</v>
+        <v>0.1685</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9268</v>
+        <v>0.5286</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2928</v>
+        <v>0.7499</v>
       </c>
     </row>
     <row r="21">
@@ -707,13 +707,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.8119</v>
+        <v>0.4538</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9322</v>
+        <v>0.541</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3838</v>
+        <v>0.4015</v>
       </c>
     </row>
     <row r="22">
@@ -721,13 +721,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.606</v>
+        <v>0.7581</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9815</v>
+        <v>0.6671</v>
       </c>
       <c r="D22" t="n">
-        <v>0.537</v>
+        <v>0.2558</v>
       </c>
     </row>
     <row r="23">
@@ -735,10 +735,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.62</v>
+        <v>-0.6235</v>
       </c>
       <c r="C23" t="n">
-        <v>0.049</v>
+        <v>0.0489</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.4263</v>
+        <v>1.9558</v>
       </c>
       <c r="C2" t="n">
-        <v>14.8351</v>
+        <v>4.0278</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9234</v>
+        <v>0.6273</v>
       </c>
     </row>
     <row r="3">
@@ -791,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5193</v>
+        <v>0.5943</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7793</v>
+        <v>0.7568</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5052</v>
+        <v>0.4323</v>
       </c>
     </row>
     <row r="4">
@@ -815,13 +815,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.9453</v>
+        <v>-5.392</v>
       </c>
       <c r="C5" t="n">
-        <v>27.4233</v>
+        <v>26.9782</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8569</v>
+        <v>0.8416</v>
       </c>
     </row>
     <row r="6">
@@ -829,13 +829,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3347</v>
+        <v>0.3814</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7451</v>
+        <v>0.7258</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6533</v>
+        <v>0.5993</v>
       </c>
     </row>
     <row r="7">
@@ -873,13 +873,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.2023</v>
+        <v>-2.4614</v>
       </c>
       <c r="C10" t="n">
-        <v>11.8113</v>
+        <v>2.1697</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9189</v>
+        <v>0.2566</v>
       </c>
     </row>
     <row r="11">
@@ -887,13 +887,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.5221</v>
+        <v>-0.8456</v>
       </c>
       <c r="C11" t="n">
-        <v>5.6674</v>
+        <v>3.1786</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9266</v>
+        <v>0.7902</v>
       </c>
     </row>
     <row r="12">
@@ -901,13 +901,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.0446</v>
+        <v>-1.6672</v>
       </c>
       <c r="C12" t="n">
-        <v>8.6356</v>
+        <v>4.7786</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9037</v>
+        <v>0.7272</v>
       </c>
     </row>
     <row r="13">
@@ -915,13 +915,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.5707</v>
+        <v>-2.378</v>
       </c>
       <c r="C13" t="n">
-        <v>9.1996</v>
+        <v>5.2968</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8644</v>
+        <v>0.6535</v>
       </c>
     </row>
     <row r="14">
@@ -929,13 +929,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.0949</v>
+        <v>-2.939</v>
       </c>
       <c r="C14" t="n">
-        <v>9.276</v>
+        <v>5.1766</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8213</v>
+        <v>0.5702</v>
       </c>
     </row>
     <row r="15">
@@ -943,13 +943,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.5455</v>
+        <v>-3.338</v>
       </c>
       <c r="C15" t="n">
-        <v>10.2125</v>
+        <v>4.7822</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8032</v>
+        <v>0.4852</v>
       </c>
     </row>
     <row r="16">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.8841</v>
+        <v>-3.594</v>
       </c>
       <c r="C16" t="n">
-        <v>12.0109</v>
+        <v>4.348</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8102</v>
+        <v>0.4085</v>
       </c>
     </row>
     <row r="17">
@@ -971,13 +971,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.106</v>
+        <v>-3.7277</v>
       </c>
       <c r="C17" t="n">
-        <v>13.995</v>
+        <v>4.1494</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8244</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="18">
@@ -985,13 +985,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.2268</v>
+        <v>-3.7499</v>
       </c>
       <c r="C18" t="n">
-        <v>14.9777</v>
+        <v>4.0964</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8294</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="19">
@@ -999,13 +999,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.2476</v>
+        <v>-3.6644</v>
       </c>
       <c r="C19" t="n">
-        <v>14.8703</v>
+        <v>4.1165</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8271</v>
+        <v>0.3734</v>
       </c>
     </row>
     <row r="20">
@@ -1013,13 +1013,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.1636</v>
+        <v>-3.535</v>
       </c>
       <c r="C20" t="n">
-        <v>14.8166</v>
+        <v>4.0653</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8309</v>
+        <v>0.3845</v>
       </c>
     </row>
     <row r="21">
@@ -1027,13 +1027,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.0333</v>
+        <v>-3.4139</v>
       </c>
       <c r="C21" t="n">
-        <v>14.8639</v>
+        <v>4.0591</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8383</v>
+        <v>0.4003</v>
       </c>
     </row>
     <row r="22">
@@ -1041,13 +1041,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.9039</v>
+        <v>-3.2935</v>
       </c>
       <c r="C22" t="n">
-        <v>15.2543</v>
+        <v>5.3979</v>
       </c>
       <c r="D22" t="n">
-        <v>0.849</v>
+        <v>0.5418</v>
       </c>
     </row>
     <row r="23">
@@ -1055,7 +1055,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3227</v>
+        <v>0.2989</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>

--- a/tables/model_summaries_non_park_comparison.xlsx
+++ b/tables/model_summaries_non_park_comparison.xlsx
@@ -441,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6126</v>
+        <v>0.6074</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5412</v>
+        <v>0.5434</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2577</v>
+        <v>0.2636</v>
       </c>
     </row>
     <row r="3">
@@ -455,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0154</v>
+        <v>-0.0155</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1859</v>
+        <v>0.1868</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9342</v>
+        <v>0.9337</v>
       </c>
     </row>
     <row r="4">
@@ -469,10 +469,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0747</v>
+        <v>1.0791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1673</v>
+        <v>0.1682</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -483,13 +483,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4842</v>
+        <v>0.4989</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1587</v>
+        <v>0.1597</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0023</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="6">
@@ -497,10 +497,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9974</v>
+        <v>-0.998</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2074</v>
+        <v>0.2085</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9714</v>
+        <v>0.9777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1847</v>
+        <v>0.1857</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -525,10 +525,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8565</v>
+        <v>0.8596</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1613</v>
+        <v>0.1621</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4182</v>
+        <v>-0.4183</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1914</v>
+        <v>0.1922</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0289</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="10">
@@ -553,10 +553,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9228</v>
+        <v>0.9274</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3238</v>
+        <v>0.3253</v>
       </c>
       <c r="D10" t="n">
         <v>0.0044</v>
@@ -567,13 +567,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0159</v>
+        <v>0.0154</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2904</v>
+        <v>0.2917</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9562</v>
+        <v>0.9579</v>
       </c>
     </row>
     <row r="12">
@@ -581,13 +581,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0405</v>
+        <v>0.0394</v>
       </c>
       <c r="C12" t="n">
-        <v>0.43</v>
+        <v>0.4318</v>
       </c>
       <c r="D12" t="n">
-        <v>0.925</v>
+        <v>0.9273</v>
       </c>
     </row>
     <row r="13">
@@ -595,13 +595,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0878</v>
+        <v>0.0862</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4834</v>
+        <v>0.4854</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8559</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="14">
@@ -609,13 +609,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1595</v>
+        <v>0.1576</v>
       </c>
       <c r="C14" t="n">
-        <v>0.511</v>
+        <v>0.5131</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7549</v>
+        <v>0.7587</v>
       </c>
     </row>
     <row r="15">
@@ -623,13 +623,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2232</v>
+        <v>0.2209</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5351</v>
+        <v>0.5372</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6766</v>
+        <v>0.6809</v>
       </c>
     </row>
     <row r="16">
@@ -637,13 +637,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2671</v>
+        <v>0.2647</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5405</v>
+        <v>0.5427</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6211</v>
+        <v>0.6257</v>
       </c>
     </row>
     <row r="17">
@@ -651,13 +651,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2267</v>
+        <v>0.2254</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5351</v>
+        <v>0.5373</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6718</v>
+        <v>0.6748</v>
       </c>
     </row>
     <row r="18">
@@ -665,13 +665,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0791</v>
+        <v>0.0813</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5313</v>
+        <v>0.5334</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8816</v>
+        <v>0.8789</v>
       </c>
     </row>
     <row r="19">
@@ -679,13 +679,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0047</v>
+        <v>0.0115</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5338</v>
+        <v>0.5359</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9929</v>
+        <v>0.9829</v>
       </c>
     </row>
     <row r="20">
@@ -693,13 +693,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1685</v>
+        <v>0.1721</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5286</v>
+        <v>0.5307</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7499</v>
+        <v>0.7458</v>
       </c>
     </row>
     <row r="21">
@@ -707,13 +707,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4538</v>
+        <v>0.4485</v>
       </c>
       <c r="C21" t="n">
-        <v>0.541</v>
+        <v>0.5432</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4015</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="22">
@@ -721,13 +721,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7581</v>
+        <v>0.744</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6671</v>
+        <v>0.6701</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2558</v>
+        <v>0.2669</v>
       </c>
     </row>
     <row r="23">
@@ -735,10 +735,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6235</v>
+        <v>-0.6176</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0489</v>
+        <v>0.0491</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.9558</v>
+        <v>1.0287</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0278</v>
+        <v>2.8747</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6273</v>
+        <v>0.7205</v>
       </c>
     </row>
     <row r="3">
@@ -791,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5943</v>
+        <v>0.6313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7568</v>
+        <v>0.8456</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4323</v>
+        <v>0.4553</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +814,24 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>-5.392</v>
-      </c>
+      <c r="B5"/>
       <c r="C5" t="n">
-        <v>26.9782</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3814</v>
+        <v>0.3951</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7258</v>
+        <v>0.8383</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5993</v>
+        <v>0.6374</v>
       </c>
     </row>
     <row r="7">
@@ -873,13 +869,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.4614</v>
+        <v>-1.9329</v>
       </c>
       <c r="C10" t="n">
-        <v>2.1697</v>
+        <v>1.548</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2566</v>
+        <v>0.2118</v>
       </c>
     </row>
     <row r="11">
@@ -887,13 +883,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.8456</v>
+        <v>-0.6856</v>
       </c>
       <c r="C11" t="n">
-        <v>3.1786</v>
+        <v>2.343</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7902</v>
+        <v>0.7698</v>
       </c>
     </row>
     <row r="12">
@@ -901,13 +897,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.6672</v>
+        <v>-1.3534</v>
       </c>
       <c r="C12" t="n">
-        <v>4.7786</v>
+        <v>3.1983</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7272</v>
+        <v>0.6722</v>
       </c>
     </row>
     <row r="13">
@@ -915,13 +911,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.378</v>
+        <v>-1.9372</v>
       </c>
       <c r="C13" t="n">
-        <v>5.2968</v>
+        <v>3.0066</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6535</v>
+        <v>0.5194</v>
       </c>
     </row>
     <row r="14">
@@ -929,13 +925,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.939</v>
+        <v>-2.4068</v>
       </c>
       <c r="C14" t="n">
-        <v>5.1766</v>
+        <v>2.7664</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5702</v>
+        <v>0.3843</v>
       </c>
     </row>
     <row r="15">
@@ -943,13 +939,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.338</v>
+        <v>-2.7523</v>
       </c>
       <c r="C15" t="n">
-        <v>4.7822</v>
+        <v>2.9143</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4852</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="16">
@@ -957,13 +953,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.594</v>
+        <v>-2.984</v>
       </c>
       <c r="C16" t="n">
-        <v>4.348</v>
+        <v>3.0061</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4085</v>
+        <v>0.3209</v>
       </c>
     </row>
     <row r="17">
@@ -971,13 +967,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.7277</v>
+        <v>-3.1072</v>
       </c>
       <c r="C17" t="n">
-        <v>4.1494</v>
+        <v>3.0185</v>
       </c>
       <c r="D17" t="n">
-        <v>0.369</v>
+        <v>0.3033</v>
       </c>
     </row>
     <row r="18">
@@ -985,13 +981,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.7499</v>
+        <v>-3.1189</v>
       </c>
       <c r="C18" t="n">
-        <v>4.0964</v>
+        <v>2.9788</v>
       </c>
       <c r="D18" t="n">
-        <v>0.36</v>
+        <v>0.2951</v>
       </c>
     </row>
     <row r="19">
@@ -999,13 +995,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.6644</v>
+        <v>-3.0196</v>
       </c>
       <c r="C19" t="n">
-        <v>4.1165</v>
+        <v>2.9776</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3734</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="20">
@@ -1013,13 +1009,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.535</v>
+        <v>-2.8666</v>
       </c>
       <c r="C20" t="n">
-        <v>4.0653</v>
+        <v>2.8808</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3845</v>
+        <v>0.3197</v>
       </c>
     </row>
     <row r="21">
@@ -1027,13 +1023,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.4139</v>
+        <v>-2.7143</v>
       </c>
       <c r="C21" t="n">
-        <v>4.0591</v>
+        <v>2.8637</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4003</v>
+        <v>0.3432</v>
       </c>
     </row>
     <row r="22">
@@ -1041,13 +1037,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>-3.2935</v>
+        <v>-2.5624</v>
       </c>
       <c r="C22" t="n">
-        <v>5.3979</v>
+        <v>4.0095</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5418</v>
+        <v>0.5228</v>
       </c>
     </row>
     <row r="23">
@@ -1055,7 +1051,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2989</v>
+        <v>0.4878</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>

--- a/tables/model_summaries_non_park_comparison.xlsx
+++ b/tables/model_summaries_non_park_comparison.xlsx
@@ -441,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6074</v>
+        <v>1.5883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5434</v>
+        <v>0.5841</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2636</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="3">
@@ -455,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0155</v>
+        <v>-0.1657</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1868</v>
+        <v>0.3853</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9337</v>
+        <v>0.6672</v>
       </c>
     </row>
     <row r="4">
@@ -469,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0791</v>
+        <v>0.288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1682</v>
+        <v>0.2157</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
     </row>
     <row r="5">
@@ -483,13 +483,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4989</v>
+        <v>0.149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1597</v>
+        <v>0.223</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0018</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="6">
@@ -497,13 +497,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.998</v>
+        <v>-0.3139</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2085</v>
+        <v>0.8305</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.7054</v>
       </c>
     </row>
     <row r="7">
@@ -511,13 +511,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9777</v>
+        <v>0.4095</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1857</v>
+        <v>0.2231</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="8">
@@ -525,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8596</v>
+        <v>0.3838</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1621</v>
+        <v>0.2084</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.0656</v>
       </c>
     </row>
     <row r="9">
@@ -539,13 +539,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4183</v>
+        <v>-0.2931</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1922</v>
+        <v>0.8827</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0296</v>
+        <v>0.7399</v>
       </c>
     </row>
     <row r="10">
@@ -553,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9274</v>
+        <v>0.3606</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3253</v>
+        <v>0.3086</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0044</v>
+        <v>0.2426</v>
       </c>
     </row>
     <row r="11">
@@ -567,13 +567,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0154</v>
+        <v>0.2009</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2917</v>
+        <v>0.3074</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9579</v>
+        <v>0.5134</v>
       </c>
     </row>
     <row r="12">
@@ -581,13 +581,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0394</v>
+        <v>0.3958</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4318</v>
+        <v>0.4672</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9273</v>
+        <v>0.3969</v>
       </c>
     </row>
     <row r="13">
@@ -595,13 +595,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0862</v>
+        <v>0.5143</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4854</v>
+        <v>0.5235</v>
       </c>
       <c r="D13" t="n">
-        <v>0.859</v>
+        <v>0.3259</v>
       </c>
     </row>
     <row r="14">
@@ -609,13 +609,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1576</v>
+        <v>0.5504</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5131</v>
+        <v>0.5427</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7587</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="15">
@@ -623,13 +623,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2209</v>
+        <v>0.5372</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5372</v>
+        <v>0.5597</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6809</v>
+        <v>0.3372</v>
       </c>
     </row>
     <row r="16">
@@ -637,13 +637,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2647</v>
+        <v>0.5724</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5427</v>
+        <v>0.5642</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6257</v>
+        <v>0.3103</v>
       </c>
     </row>
     <row r="17">
@@ -651,13 +651,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2254</v>
+        <v>0.6515</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5373</v>
+        <v>0.5603</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6748</v>
+        <v>0.2449</v>
       </c>
     </row>
     <row r="18">
@@ -665,13 +665,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0813</v>
+        <v>0.597</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5334</v>
+        <v>0.5576</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8789</v>
+        <v>0.2844</v>
       </c>
     </row>
     <row r="19">
@@ -679,13 +679,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0115</v>
+        <v>0.501</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5359</v>
+        <v>0.5561</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9829</v>
+        <v>0.3676</v>
       </c>
     </row>
     <row r="20">
@@ -693,13 +693,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1721</v>
+        <v>0.5085</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5307</v>
+        <v>0.5452</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7458</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="21">
@@ -707,13 +707,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4485</v>
+        <v>0.5858</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5432</v>
+        <v>0.5525</v>
       </c>
       <c r="D21" t="n">
-        <v>0.409</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="22">
@@ -721,13 +721,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>0.744</v>
+        <v>0.6748</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6701</v>
+        <v>0.6711</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2669</v>
+        <v>0.3146</v>
       </c>
     </row>
     <row r="23">
@@ -735,10 +735,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6176</v>
+        <v>-1.3452</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0491</v>
+        <v>0.088</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0287</v>
+        <v>10.8778</v>
       </c>
       <c r="C2" t="n">
-        <v>2.8747</v>
+        <v>12.7466</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7205</v>
+        <v>0.3934</v>
       </c>
     </row>
     <row r="3">
@@ -791,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6313</v>
+        <v>0.4866</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8456</v>
+        <v>0.3391</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4553</v>
+        <v>0.1512</v>
       </c>
     </row>
     <row r="4">
@@ -825,13 +825,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3951</v>
+        <v>0.3978</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8383</v>
+        <v>0.3188</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6374</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="7">
@@ -869,13 +869,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.9329</v>
+        <v>-6.361</v>
       </c>
       <c r="C10" t="n">
-        <v>1.548</v>
+        <v>10.8758</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2118</v>
+        <v>0.5586</v>
       </c>
     </row>
     <row r="11">
@@ -883,13 +883,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6856</v>
+        <v>-2.9097</v>
       </c>
       <c r="C11" t="n">
-        <v>2.343</v>
+        <v>2.9619</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7698</v>
+        <v>0.3259</v>
       </c>
     </row>
     <row r="12">
@@ -897,13 +897,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.3534</v>
+        <v>-5.582</v>
       </c>
       <c r="C12" t="n">
-        <v>3.1983</v>
+        <v>5.05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6722</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="13">
@@ -911,13 +911,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.9372</v>
+        <v>-7.6948</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0066</v>
+        <v>7.2608</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5194</v>
+        <v>0.2892</v>
       </c>
     </row>
     <row r="14">
@@ -925,13 +925,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.4068</v>
+        <v>-9.2431</v>
       </c>
       <c r="C14" t="n">
-        <v>2.7664</v>
+        <v>9.4241</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3843</v>
+        <v>0.3267</v>
       </c>
     </row>
     <row r="15">
@@ -939,13 +939,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.7523</v>
+        <v>-10.2268</v>
       </c>
       <c r="C15" t="n">
-        <v>2.9143</v>
+        <v>11.2768</v>
       </c>
       <c r="D15" t="n">
-        <v>0.345</v>
+        <v>0.3645</v>
       </c>
     </row>
     <row r="16">
@@ -953,13 +953,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.984</v>
+        <v>-10.6459</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0061</v>
+        <v>12.5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3209</v>
+        <v>0.3944</v>
       </c>
     </row>
     <row r="17">
@@ -967,13 +967,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.1072</v>
+        <v>-10.5861</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0185</v>
+        <v>12.8267</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3033</v>
+        <v>0.4092</v>
       </c>
     </row>
     <row r="18">
@@ -981,13 +981,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.1189</v>
+        <v>-9.9481</v>
       </c>
       <c r="C18" t="n">
-        <v>2.9788</v>
+        <v>12.7392</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2951</v>
+        <v>0.4349</v>
       </c>
     </row>
     <row r="19">
@@ -995,13 +995,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.0196</v>
+        <v>-9.8913</v>
       </c>
       <c r="C19" t="n">
-        <v>2.9776</v>
+        <v>12.7469</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3105</v>
+        <v>0.4378</v>
       </c>
     </row>
     <row r="20">
@@ -1009,13 +1009,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.8666</v>
+        <v>-9.545</v>
       </c>
       <c r="C20" t="n">
-        <v>2.8808</v>
+        <v>12.755</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3197</v>
+        <v>0.4543</v>
       </c>
     </row>
     <row r="21">
@@ -1023,13 +1023,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.7143</v>
+        <v>-9.8953</v>
       </c>
       <c r="C21" t="n">
-        <v>2.8637</v>
+        <v>12.8016</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3432</v>
+        <v>0.4395</v>
       </c>
     </row>
     <row r="22">
@@ -1037,13 +1037,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.5624</v>
+        <v>-10.2585</v>
       </c>
       <c r="C22" t="n">
-        <v>4.0095</v>
+        <v>13.2301</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5228</v>
+        <v>0.4381</v>
       </c>
     </row>
     <row r="23">
@@ -1051,13 +1051,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4878</v>
+        <v>-0.6258</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.1822</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
     </row>
   </sheetData>

--- a/tables/model_summaries_non_park_comparison.xlsx
+++ b/tables/model_summaries_non_park_comparison.xlsx
@@ -441,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5883</v>
+        <v>1.5006</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5841</v>
+        <v>0.5203</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0065</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="3">
@@ -455,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1657</v>
+        <v>-0.1614</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3853</v>
+        <v>0.3012</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6672</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="4">
@@ -469,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.288</v>
+        <v>0.3008</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2157</v>
+        <v>0.1811</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1818</v>
+        <v>0.0967</v>
       </c>
     </row>
     <row r="5">
@@ -483,13 +483,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.149</v>
+        <v>0.14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223</v>
+        <v>0.1864</v>
       </c>
       <c r="D5" t="n">
-        <v>0.504</v>
+        <v>0.4526</v>
       </c>
     </row>
     <row r="6">
@@ -497,13 +497,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3139</v>
+        <v>-0.3088</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8305</v>
+        <v>0.5905</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7054</v>
+        <v>0.6009</v>
       </c>
     </row>
     <row r="7">
@@ -511,13 +511,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4095</v>
+        <v>0.4023</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2231</v>
+        <v>0.1892</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0664</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="8">
@@ -525,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3838</v>
+        <v>0.367</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2084</v>
+        <v>0.1751</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0656</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="9">
@@ -539,13 +539,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2931</v>
+        <v>-0.2809</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8827</v>
+        <v>0.5956</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7399</v>
+        <v>0.6372</v>
       </c>
     </row>
     <row r="10">
@@ -553,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3606</v>
+        <v>0.3463</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3086</v>
+        <v>0.2742</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2426</v>
+        <v>0.2065</v>
       </c>
     </row>
     <row r="11">
@@ -567,13 +567,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2009</v>
+        <v>0.1975</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3074</v>
+        <v>0.2795</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5134</v>
+        <v>0.4798</v>
       </c>
     </row>
     <row r="12">
@@ -581,13 +581,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3958</v>
+        <v>0.39</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4672</v>
+        <v>0.4221</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3969</v>
+        <v>0.3555</v>
       </c>
     </row>
     <row r="13">
@@ -595,13 +595,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5143</v>
+        <v>0.5138</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5235</v>
+        <v>0.4714</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3259</v>
+        <v>0.2758</v>
       </c>
     </row>
     <row r="14">
@@ -609,13 +609,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5504</v>
+        <v>0.5614</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5427</v>
+        <v>0.4883</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3105</v>
+        <v>0.2503</v>
       </c>
     </row>
     <row r="15">
@@ -623,13 +623,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5372</v>
+        <v>0.5573</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5597</v>
+        <v>0.504</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3372</v>
+        <v>0.2689</v>
       </c>
     </row>
     <row r="16">
@@ -637,13 +637,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5724</v>
+        <v>0.5876</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5642</v>
+        <v>0.5081</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3103</v>
+        <v>0.2474</v>
       </c>
     </row>
     <row r="17">
@@ -654,10 +654,10 @@
         <v>0.6515</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5603</v>
+        <v>0.5046</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2449</v>
+        <v>0.1967</v>
       </c>
     </row>
     <row r="18">
@@ -665,13 +665,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>0.597</v>
+        <v>0.5901</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5576</v>
+        <v>0.5024</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2844</v>
+        <v>0.2402</v>
       </c>
     </row>
     <row r="19">
@@ -679,13 +679,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>0.501</v>
+        <v>0.4991</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5561</v>
+        <v>0.5016</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3676</v>
+        <v>0.3198</v>
       </c>
     </row>
     <row r="20">
@@ -693,13 +693,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5085</v>
+        <v>0.5167</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5452</v>
+        <v>0.4917</v>
       </c>
       <c r="D20" t="n">
-        <v>0.351</v>
+        <v>0.2933</v>
       </c>
     </row>
     <row r="21">
@@ -707,13 +707,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5858</v>
+        <v>0.6117</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5525</v>
+        <v>0.4973</v>
       </c>
       <c r="D21" t="n">
-        <v>0.289</v>
+        <v>0.2186</v>
       </c>
     </row>
     <row r="22">
@@ -721,13 +721,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6748</v>
+        <v>0.7204</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6711</v>
+        <v>0.6068</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3146</v>
+        <v>0.2351</v>
       </c>
     </row>
     <row r="23">
@@ -735,10 +735,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.3452</v>
+        <v>-1.3215</v>
       </c>
       <c r="C23" t="n">
-        <v>0.088</v>
+        <v>0.0803</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>

--- a/tables/model_summaries_non_park_comparison.xlsx
+++ b/tables/model_summaries_non_park_comparison.xlsx
@@ -45,7 +45,7 @@
     <t xml:space="preserve">ParkKellerwald</t>
   </si>
   <si>
-    <t xml:space="preserve">ParkEiffel</t>
+    <t xml:space="preserve">ParkEifel</t>
   </si>
   <si>
     <t xml:space="preserve">ParkVorpomm</t>

--- a/tables/model_summaries_non_park_comparison.xlsx
+++ b/tables/model_summaries_non_park_comparison.xlsx
@@ -30,22 +30,22 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
+    <t xml:space="preserve">ParkEifel</t>
+  </si>
+  <si>
     <t xml:space="preserve">ParkHainich</t>
   </si>
   <si>
     <t xml:space="preserve">ParkHunsrueck</t>
   </si>
   <si>
+    <t xml:space="preserve">ParkJasmund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParkKellerwald</t>
+  </si>
+  <si>
     <t xml:space="preserve">ParkSaechs_Schw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParkJasmund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParkKellerwald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParkEifel</t>
   </si>
   <si>
     <t xml:space="preserve">ParkVorpomm</t>
@@ -455,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1614</v>
+        <v>0.367</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3012</v>
+        <v>0.1751</v>
       </c>
       <c r="D3" t="n">
-        <v>0.592</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4">
@@ -469,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3008</v>
+        <v>-0.1614</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1811</v>
+        <v>0.3012</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0967</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="5">
@@ -483,13 +483,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.14</v>
+        <v>0.3008</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1864</v>
+        <v>0.1811</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4526</v>
+        <v>0.0967</v>
       </c>
     </row>
     <row r="6">
@@ -525,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.367</v>
+        <v>0.14</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1751</v>
+        <v>0.1864</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0361</v>
+        <v>0.4526</v>
       </c>
     </row>
     <row r="9">
@@ -790,25 +790,25 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.4866</v>
-      </c>
+      <c r="B3"/>
       <c r="C3" t="n">
-        <v>0.3391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1512</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="n">
+        <v>0.4866</v>
+      </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4"/>
+        <v>0.3391</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1512</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">

--- a/tables/model_summaries_non_park_comparison.xlsx
+++ b/tables/model_summaries_non_park_comparison.xlsx
@@ -441,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5006</v>
+        <v>2.1328</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5203</v>
+        <v>0.3086</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -455,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.367</v>
+        <v>0.3513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1751</v>
+        <v>0.1754</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0361</v>
+        <v>0.0452</v>
       </c>
     </row>
     <row r="4">
@@ -469,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1614</v>
+        <v>-0.1743</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3012</v>
+        <v>0.2995</v>
       </c>
       <c r="D4" t="n">
-        <v>0.592</v>
+        <v>0.5607</v>
       </c>
     </row>
     <row r="5">
@@ -483,13 +483,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3008</v>
+        <v>0.2866</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1811</v>
+        <v>0.1815</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0967</v>
+        <v>0.1144</v>
       </c>
     </row>
     <row r="6">
@@ -497,13 +497,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3088</v>
+        <v>-0.315</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5905</v>
+        <v>0.5718</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6009</v>
+        <v>0.5817</v>
       </c>
     </row>
     <row r="7">
@@ -511,13 +511,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4023</v>
+        <v>0.3802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1892</v>
+        <v>0.1914</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0335</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="8">
@@ -525,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.14</v>
+        <v>0.1454</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1864</v>
+        <v>0.1871</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4526</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="9">
@@ -539,13 +539,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2809</v>
+        <v>-0.2981</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5956</v>
+        <v>0.5973</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6372</v>
+        <v>0.6177</v>
       </c>
     </row>
     <row r="10">
@@ -553,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3463</v>
+        <v>0.354</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2742</v>
+        <v>0.3412</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2065</v>
+        <v>0.2995</v>
       </c>
     </row>
     <row r="11">
@@ -567,13 +567,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1975</v>
+        <v>-0.0462</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2795</v>
+        <v>0.2272</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4798</v>
+        <v>0.8387</v>
       </c>
     </row>
     <row r="12">
@@ -581,13 +581,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>0.39</v>
+        <v>-0.0662</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4221</v>
+        <v>0.2904</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3555</v>
+        <v>0.8197</v>
       </c>
     </row>
     <row r="13">
@@ -595,13 +595,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5138</v>
+        <v>0.0049</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4714</v>
+        <v>0.2811</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2758</v>
+        <v>0.9861</v>
       </c>
     </row>
     <row r="14">
@@ -609,13 +609,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5614</v>
+        <v>0.0034</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4883</v>
+        <v>0.2631</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2503</v>
+        <v>0.9898</v>
       </c>
     </row>
     <row r="15">
@@ -623,13 +623,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5573</v>
+        <v>-0.095</v>
       </c>
       <c r="C15" t="n">
-        <v>0.504</v>
+        <v>0.2623</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2689</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="16">
@@ -637,13 +637,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5876</v>
+        <v>-0.137</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5081</v>
+        <v>0.2822</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2474</v>
+        <v>0.6273</v>
       </c>
     </row>
     <row r="17">
@@ -651,13 +651,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6515</v>
+        <v>-0.1825</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5046</v>
+        <v>0.3264</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1967</v>
+        <v>0.5761</v>
       </c>
     </row>
     <row r="18">
@@ -665,13 +665,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5901</v>
+        <v>-0.2675</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5024</v>
+        <v>0.3789</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2402</v>
+        <v>0.4803</v>
       </c>
     </row>
     <row r="19">
@@ -679,13 +679,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4991</v>
+        <v>-0.297</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5016</v>
+        <v>0.4097</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3198</v>
+        <v>0.4685</v>
       </c>
     </row>
     <row r="20">
@@ -693,13 +693,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5167</v>
+        <v>-0.245</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4917</v>
+        <v>0.4323</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2933</v>
+        <v>0.5709</v>
       </c>
     </row>
     <row r="21">
@@ -707,13 +707,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6117</v>
+        <v>-0.2255</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4973</v>
+        <v>0.4906</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2186</v>
+        <v>0.6458</v>
       </c>
     </row>
     <row r="22">
@@ -721,13 +721,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7204</v>
+        <v>-0.2132</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6068</v>
+        <v>0.6461</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2351</v>
+        <v>0.7415</v>
       </c>
     </row>
     <row r="23">
@@ -735,10 +735,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.3215</v>
+        <v>-1.3204</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0803</v>
+        <v>0.0809</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -777,105 +777,125 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8778</v>
+        <v>-1.05</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7466</v>
+        <v>6.8395</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3934</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="n">
+        <v>-2.7078</v>
+      </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3"/>
+        <v>52520.9888</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4866</v>
+        <v>0.5188</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3391</v>
+        <v>0.3428</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1512</v>
+        <v>0.1301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="n">
+        <v>-2.7081</v>
+      </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5"/>
+        <v>61907.51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3978</v>
+        <v>0.4167</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3188</v>
+        <v>0.3232</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212</v>
+        <v>0.1973</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="n">
+        <v>-1.5612</v>
+      </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7"/>
+        <v>68203.7739</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="n">
+        <v>-3.0336</v>
+      </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8"/>
+        <v>58893.6987</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="n">
+        <v>-2.9034</v>
+      </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9"/>
+        <v>74191.5672</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.361</v>
+        <v>0.048</v>
       </c>
       <c r="C10" t="n">
-        <v>10.8758</v>
+        <v>0.9843</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5586</v>
+        <v>0.9611</v>
       </c>
     </row>
     <row r="11">
@@ -883,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.9097</v>
+        <v>0.4391</v>
       </c>
       <c r="C11" t="n">
-        <v>2.9619</v>
+        <v>3.125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3259</v>
+        <v>0.8883</v>
       </c>
     </row>
     <row r="12">
@@ -897,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.582</v>
+        <v>0.8782</v>
       </c>
       <c r="C12" t="n">
-        <v>5.05</v>
+        <v>5.3822</v>
       </c>
       <c r="D12" t="n">
-        <v>0.269</v>
+        <v>0.8704</v>
       </c>
     </row>
     <row r="13">
@@ -911,13 +931,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>-7.6948</v>
+        <v>1.3151</v>
       </c>
       <c r="C13" t="n">
-        <v>7.2608</v>
+        <v>6.6563</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2892</v>
+        <v>0.8434</v>
       </c>
     </row>
     <row r="14">
@@ -925,13 +945,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>-9.2431</v>
+        <v>1.7624</v>
       </c>
       <c r="C14" t="n">
-        <v>9.4241</v>
+        <v>6.9234</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3267</v>
+        <v>0.7991</v>
       </c>
     </row>
     <row r="15">
@@ -939,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>-10.2268</v>
+        <v>2.03</v>
       </c>
       <c r="C15" t="n">
-        <v>11.2768</v>
+        <v>6.8475</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3645</v>
+        <v>0.7669</v>
       </c>
     </row>
     <row r="16">
@@ -953,13 +973,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>-10.6459</v>
+        <v>2.2062</v>
       </c>
       <c r="C16" t="n">
-        <v>12.5</v>
+        <v>6.858</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3944</v>
+        <v>0.7477</v>
       </c>
     </row>
     <row r="17">
@@ -967,13 +987,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>-10.5861</v>
+        <v>2.392</v>
       </c>
       <c r="C17" t="n">
-        <v>12.8267</v>
+        <v>6.8839</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4092</v>
+        <v>0.7282</v>
       </c>
     </row>
     <row r="18">
@@ -981,13 +1001,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>-9.9481</v>
+        <v>2.7592</v>
       </c>
       <c r="C18" t="n">
-        <v>12.7392</v>
+        <v>6.9302</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4349</v>
+        <v>0.6905</v>
       </c>
     </row>
     <row r="19">
@@ -995,13 +1015,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>-9.8913</v>
+        <v>2.1065</v>
       </c>
       <c r="C19" t="n">
-        <v>12.7469</v>
+        <v>6.9411</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4378</v>
+        <v>0.7615</v>
       </c>
     </row>
     <row r="20">
@@ -1009,13 +1029,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>-9.545</v>
+        <v>0.9034</v>
       </c>
       <c r="C20" t="n">
-        <v>12.755</v>
+        <v>7.1055</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4543</v>
+        <v>0.8988</v>
       </c>
     </row>
     <row r="21">
@@ -1023,13 +1043,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>-9.8953</v>
+        <v>-0.3053</v>
       </c>
       <c r="C21" t="n">
-        <v>12.8016</v>
+        <v>7.79</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4395</v>
+        <v>0.9687</v>
       </c>
     </row>
     <row r="22">
@@ -1037,13 +1057,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>-10.2585</v>
+        <v>-1.5141</v>
       </c>
       <c r="C22" t="n">
-        <v>13.2301</v>
+        <v>9.2468</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4381</v>
+        <v>0.8699</v>
       </c>
     </row>
     <row r="23">
@@ -1051,13 +1071,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6258</v>
+        <v>-0.6111</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1822</v>
+        <v>0.1794</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0006</v>
+        <v>0.0007</v>
       </c>
     </row>
   </sheetData>

--- a/tables/model_summaries_non_park_comparison.xlsx
+++ b/tables/model_summaries_non_park_comparison.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -25,6 +25,15 @@
   </si>
   <si>
     <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimate_on_the_response_scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lwr_on_the_response_scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uppr_on_the_response_scale</t>
   </si>
   <si>
     <t xml:space="preserve">(Intercept)</t>
@@ -435,10 +444,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>2.1328</v>
@@ -449,10 +467,19 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>8.4387</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.6088</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.4514</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>0.3513</v>
@@ -463,10 +490,19 @@
       <c r="D3" t="n">
         <v>0.0452</v>
       </c>
+      <c r="E3" t="n">
+        <v>1.4208</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.0076</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.0036</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>-0.1743</v>
@@ -477,10 +513,19 @@
       <c r="D4" t="n">
         <v>0.5607</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.8401</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.5111</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>0.2866</v>
@@ -491,10 +536,19 @@
       <c r="D5" t="n">
         <v>0.1144</v>
       </c>
+      <c r="E5" t="n">
+        <v>1.3319</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9331</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.901</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>-0.315</v>
@@ -505,10 +559,19 @@
       <c r="D6" t="n">
         <v>0.5817</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.7298</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2379</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.2382</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>0.3802</v>
@@ -519,10 +582,19 @@
       <c r="D7" t="n">
         <v>0.0469</v>
       </c>
+      <c r="E7" t="n">
+        <v>1.4626</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.0052</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.1282</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
         <v>0.1454</v>
@@ -533,10 +605,19 @@
       <c r="D8" t="n">
         <v>0.4372</v>
       </c>
+      <c r="E8" t="n">
+        <v>1.1565</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8014</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.6689</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>-0.2981</v>
@@ -547,10 +628,19 @@
       <c r="D9" t="n">
         <v>0.6177</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.7422</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2302</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.393</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>0.354</v>
@@ -561,10 +651,19 @@
       <c r="D10" t="n">
         <v>0.2995</v>
       </c>
+      <c r="E10" t="n">
+        <v>1.4247</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.7807</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>-0.0462</v>
@@ -575,10 +674,19 @@
       <c r="D11" t="n">
         <v>0.8387</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.9548</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6116</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.4905</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>-0.0662</v>
@@ -589,10 +697,19 @@
       <c r="D12" t="n">
         <v>0.8197</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.9359</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5297</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.6538</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
         <v>0.0049</v>
@@ -603,10 +720,19 @@
       <c r="D13" t="n">
         <v>0.9861</v>
       </c>
+      <c r="E13" t="n">
+        <v>1.0049</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5792</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.7435</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
         <v>0.0034</v>
@@ -617,10 +743,19 @@
       <c r="D14" t="n">
         <v>0.9898</v>
       </c>
+      <c r="E14" t="n">
+        <v>1.0034</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5991</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.6805</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
         <v>-0.095</v>
@@ -631,10 +766,19 @@
       <c r="D15" t="n">
         <v>0.717</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.9093</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5439</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.5204</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
         <v>-0.137</v>
@@ -645,10 +789,19 @@
       <c r="D16" t="n">
         <v>0.6273</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.8719</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5015</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.5161</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>-0.1825</v>
@@ -659,10 +812,19 @@
       <c r="D17" t="n">
         <v>0.5761</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.8332</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4395</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.5797</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
         <v>-0.2675</v>
@@ -673,10 +835,19 @@
       <c r="D18" t="n">
         <v>0.4803</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.7653</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3642</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.6083</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" t="n">
         <v>-0.297</v>
@@ -687,10 +858,19 @@
       <c r="D19" t="n">
         <v>0.4685</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.7431</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3329</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.6586</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" t="n">
         <v>-0.245</v>
@@ -701,10 +881,19 @@
       <c r="D20" t="n">
         <v>0.5709</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.7827</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3355</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.8263</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21" t="n">
         <v>-0.2255</v>
@@ -715,10 +904,19 @@
       <c r="D21" t="n">
         <v>0.6458</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.7981</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3051</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.0876</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" t="n">
         <v>-0.2132</v>
@@ -729,10 +927,19 @@
       <c r="D22" t="n">
         <v>0.7415</v>
       </c>
+      <c r="E22" t="n">
+        <v>0.808</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2277</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.8668</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
         <v>-1.3204</v>
@@ -742,6 +949,15 @@
       </c>
       <c r="D23" t="n">
         <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2279</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3129</v>
       </c>
     </row>
   </sheetData>
@@ -771,10 +987,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>-1.05</v>
@@ -785,10 +1010,19 @@
       <c r="D2" t="n">
         <v>0.878</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.3499</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>232173.9463</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>-2.7078</v>
@@ -799,10 +1033,19 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>0.5188</v>
@@ -813,10 +1056,19 @@
       <c r="D4" t="n">
         <v>0.1301</v>
       </c>
+      <c r="E4" t="n">
+        <v>1.6801</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8581</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.2893</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>-2.7081</v>
@@ -827,10 +1079,19 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>0.4167</v>
@@ -841,10 +1102,19 @@
       <c r="D6" t="n">
         <v>0.1973</v>
       </c>
+      <c r="E6" t="n">
+        <v>1.5169</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8051</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.8578</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>-1.5612</v>
@@ -855,10 +1125,19 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.2099</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
         <v>-3.0336</v>
@@ -869,10 +1148,19 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.0481</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>-2.9034</v>
@@ -883,10 +1171,19 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.0548</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>0.048</v>
@@ -897,10 +1194,19 @@
       <c r="D10" t="n">
         <v>0.9611</v>
       </c>
+      <c r="E10" t="n">
+        <v>1.0492</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.2219</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>0.4391</v>
@@ -911,10 +1217,19 @@
       <c r="D11" t="n">
         <v>0.8883</v>
       </c>
+      <c r="E11" t="n">
+        <v>1.5513</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="G11" t="n">
+        <v>709.1733</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>0.8782</v>
@@ -925,10 +1240,19 @@
       <c r="D12" t="n">
         <v>0.8704</v>
       </c>
+      <c r="E12" t="n">
+        <v>2.4067</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>91787.2196</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
         <v>1.3151</v>
@@ -939,10 +1263,19 @@
       <c r="D13" t="n">
         <v>0.8434</v>
       </c>
+      <c r="E13" t="n">
+        <v>3.7251</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1725734.2226</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
         <v>1.7624</v>
@@ -953,10 +1286,19 @@
       <c r="D14" t="n">
         <v>0.7991</v>
       </c>
+      <c r="E14" t="n">
+        <v>5.8266</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4556282.3575</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
         <v>2.03</v>
@@ -967,10 +1309,19 @@
       <c r="D15" t="n">
         <v>0.7669</v>
       </c>
+      <c r="E15" t="n">
+        <v>7.6143</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5130972.8681</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
         <v>2.2062</v>
@@ -981,10 +1332,19 @@
       <c r="D16" t="n">
         <v>0.7477</v>
       </c>
+      <c r="E16" t="n">
+        <v>9.0815</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6247668.1047</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>2.392</v>
@@ -995,10 +1355,19 @@
       <c r="D17" t="n">
         <v>0.7282</v>
       </c>
+      <c r="E17" t="n">
+        <v>10.9358</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7914255.3336</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
         <v>2.7592</v>
@@ -1009,10 +1378,19 @@
       <c r="D18" t="n">
         <v>0.6905</v>
       </c>
+      <c r="E18" t="n">
+        <v>15.7876</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>12510838.8833</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" t="n">
         <v>2.1065</v>
@@ -1023,10 +1401,19 @@
       <c r="D19" t="n">
         <v>0.7615</v>
       </c>
+      <c r="E19" t="n">
+        <v>8.2196</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6653993.4497</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" t="n">
         <v>0.9034</v>
@@ -1037,10 +1424,19 @@
       <c r="D20" t="n">
         <v>0.8988</v>
       </c>
+      <c r="E20" t="n">
+        <v>2.4679</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2757884.0083</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21" t="n">
         <v>-0.3053</v>
@@ -1051,10 +1447,19 @@
       <c r="D21" t="n">
         <v>0.9687</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.7369</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3149435.6347</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" t="n">
         <v>-1.5141</v>
@@ -1065,10 +1470,19 @@
       <c r="D22" t="n">
         <v>0.8699</v>
       </c>
+      <c r="E22" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>16344574.4757</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
         <v>-0.6111</v>
@@ -1078,6 +1492,15 @@
       </c>
       <c r="D23" t="n">
         <v>0.0007</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5427</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3818</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7715</v>
       </c>
     </row>
   </sheetData>

--- a/tables/model_summaries_non_park_comparison.xlsx
+++ b/tables/model_summaries_non_park_comparison.xlsx
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1725734.2226</v>
+        <v>1725734.2227</v>
       </c>
     </row>
     <row r="14">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>5130972.8681</v>
+        <v>5130972.8682</v>
       </c>
     </row>
     <row r="16">
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7914255.3336</v>
+        <v>7914255.3337</v>
       </c>
     </row>
     <row r="18">
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>12510838.8833</v>
+        <v>12510838.8835</v>
       </c>
     </row>
     <row r="19">
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6653993.4497</v>
+        <v>6653993.4498</v>
       </c>
     </row>
     <row r="20">
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2757884.0083</v>
+        <v>2757884.0084</v>
       </c>
     </row>
     <row r="21">
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>16344574.4757</v>
+        <v>16344574.4758</v>
       </c>
     </row>
     <row r="23">

--- a/tables/model_summaries_non_park_comparison.xlsx
+++ b/tables/model_summaries_non_park_comparison.xlsx
@@ -508,7 +508,7 @@
         <v>-0.1743</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2995</v>
+        <v>0.2996</v>
       </c>
       <c r="D4" t="n">
         <v>0.5607</v>
